--- a/clonagem_assincrona.xlsx
+++ b/clonagem_assincrona.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Teste 1</t>
   </si>
@@ -104,33 +112,33 @@
   </si>
   <si>
     <t>https://github.com/google/guava</t>
-  </si>
-  <si>
-    <t>Max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
@@ -140,7 +148,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -156,48 +164,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="46" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="46" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -387,20 +391,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -421,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -441,11 +450,11 @@
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G27" si="1">AVERAGE(B2:F2)</f>
-        <v>0.0004166666667</v>
-      </c>
-    </row>
-    <row r="3">
+        <f t="shared" ref="G2:G26" si="0">AVERAGE(B2:F2)</f>
+        <v>4.1666666666666664E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -462,14 +471,14 @@
         <v>4.861111111111111E-4</v>
       </c>
       <c r="F3" s="4">
-        <v>4.050925925925926E-4</v>
+        <v>4.0509259259259258E-4</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0004351851852</v>
-      </c>
-    </row>
-    <row r="4">
+        <f t="shared" si="0"/>
+        <v>4.3518518518518526E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -477,7 +486,7 @@
         <v>2.4305555555555555E-4</v>
       </c>
       <c r="C4" s="4">
-        <v>2.314814814814815E-4</v>
+        <v>2.3148148148148149E-4</v>
       </c>
       <c r="D4" s="4">
         <v>1.7361111111111112E-4</v>
@@ -486,38 +495,38 @@
         <v>2.8935185185185184E-4</v>
       </c>
       <c r="F4" s="4">
-        <v>2.777777777777778E-4</v>
+        <v>2.7777777777777778E-4</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0002430555556</v>
-      </c>
-    </row>
-    <row r="5">
+        <f t="shared" si="0"/>
+        <v>2.4305555555555555E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>0.0012847222222222223</v>
+        <v>1.2847222222222223E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>0.0013657407407407407</v>
+        <v>1.3657407407407407E-3</v>
       </c>
       <c r="D5" s="4">
-        <v>0.00125</v>
+        <v>1.25E-3</v>
       </c>
       <c r="E5" s="4">
-        <v>0.0011226851851851851</v>
+        <v>1.1226851851851851E-3</v>
       </c>
       <c r="F5" s="4">
-        <v>0.0011458333333333333</v>
+        <v>1.1458333333333333E-3</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="1"/>
-        <v>0.001233796296</v>
-      </c>
-    </row>
-    <row r="6">
+        <f t="shared" si="0"/>
+        <v>1.2337962962962964E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -525,10 +534,10 @@
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="C6" s="4">
-        <v>3.356481481481481E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="D6" s="4">
-        <v>4.166666666666667E-4</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="E6" s="4">
         <v>3.7037037037037035E-4</v>
@@ -537,11 +546,11 @@
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0003587962963</v>
-      </c>
-    </row>
-    <row r="7">
+        <f t="shared" si="0"/>
+        <v>3.5879629629629629E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -555,28 +564,28 @@
         <v>1.7361111111111112E-4</v>
       </c>
       <c r="E7" s="4">
-        <v>1.388888888888889E-4</v>
+        <v>1.3888888888888889E-4</v>
       </c>
       <c r="F7" s="4">
         <v>1.273148148148148E-4</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="1"/>
-        <v>0.000150462963</v>
-      </c>
-    </row>
-    <row r="8">
+        <f t="shared" si="0"/>
+        <v>1.5046296296296297E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4">
-        <v>3.587962962962963E-4</v>
+        <v>3.5879629629629629E-4</v>
       </c>
       <c r="C8" s="4">
         <v>4.5138888888888887E-4</v>
       </c>
       <c r="D8" s="4">
-        <v>3.935185185185185E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="E8" s="4">
         <v>4.861111111111111E-4</v>
@@ -585,35 +594,35 @@
         <v>3.8194444444444446E-4</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0004143518519</v>
-      </c>
-    </row>
-    <row r="9">
+        <f t="shared" si="0"/>
+        <v>4.1435185185185184E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4">
-        <v>6.944444444444444E-5</v>
+        <v>6.9444444444444444E-5</v>
       </c>
       <c r="C9" s="4">
-        <v>3.472222222222222E-5</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="D9" s="4">
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="E9" s="4">
-        <v>5.787037037037037E-5</v>
+        <v>5.7870370370370373E-5</v>
       </c>
       <c r="F9" s="4">
-        <v>6.944444444444444E-5</v>
+        <v>6.9444444444444444E-5</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="1"/>
-        <v>0.00005555555556</v>
-      </c>
-    </row>
-    <row r="10">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555558E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -621,76 +630,76 @@
         <v>3.8194444444444446E-4</v>
       </c>
       <c r="C10" s="4">
-        <v>4.398148148148148E-4</v>
+        <v>4.3981481481481481E-4</v>
       </c>
       <c r="D10" s="4">
-        <v>3.935185185185185E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="E10" s="4">
         <v>3.7037037037037035E-4</v>
       </c>
       <c r="F10" s="4">
-        <v>4.62962962962963E-4</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0004097222222</v>
-      </c>
-    </row>
-    <row r="11">
+        <f t="shared" si="0"/>
+        <v>4.0972222222222224E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="4">
-        <v>0.0012037037037037038</v>
+        <v>1.2037037037037038E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>0.0015393518518518519</v>
+        <v>1.5393518518518519E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>0.0013078703703703703</v>
+        <v>1.3078703703703703E-3</v>
       </c>
       <c r="E11" s="4">
-        <v>0.0013310185185185185</v>
+        <v>1.3310185185185185E-3</v>
       </c>
       <c r="F11" s="4">
-        <v>0.0014351851851851852</v>
+        <v>1.4351851851851852E-3</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="1"/>
-        <v>0.001363425926</v>
-      </c>
-    </row>
-    <row r="12">
+        <f t="shared" si="0"/>
+        <v>1.3634259259259261E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4">
-        <v>0.0013773148148148147</v>
+        <v>1.3773148148148147E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>0.0016898148148148148</v>
+        <v>1.6898148148148148E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>0.0014699074074074074</v>
+        <v>1.4699074074074074E-3</v>
       </c>
       <c r="E12" s="4">
-        <v>0.0014467592592592592</v>
+        <v>1.4467592592592592E-3</v>
       </c>
       <c r="F12" s="4">
-        <v>0.0014351851851851852</v>
+        <v>1.4351851851851852E-3</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="1"/>
-        <v>0.001483796296</v>
-      </c>
-    </row>
-    <row r="13">
+        <f t="shared" si="0"/>
+        <v>1.4837962962962962E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="4">
-        <v>9.259259259259259E-5</v>
+        <v>9.2592592592592588E-5</v>
       </c>
       <c r="C13" s="4">
         <v>1.1574074074074075E-4</v>
@@ -705,70 +714,70 @@
         <v>1.5046296296296297E-4</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0001134259259</v>
-      </c>
-    </row>
-    <row r="14">
+        <f t="shared" si="0"/>
+        <v>1.1342592592592593E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4">
-        <v>7.175925925925926E-4</v>
+        <v>7.1759259259259259E-4</v>
       </c>
       <c r="C14" s="4">
-        <v>5.902777777777778E-4</v>
+        <v>5.9027777777777778E-4</v>
       </c>
       <c r="D14" s="4">
-        <v>6.597222222222222E-4</v>
+        <v>6.5972222222222224E-4</v>
       </c>
       <c r="E14" s="4">
-        <v>7.175925925925926E-4</v>
+        <v>7.1759259259259259E-4</v>
       </c>
       <c r="F14" s="4">
-        <v>6.828703703703704E-4</v>
+        <v>6.8287037037037036E-4</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0006736111111</v>
-      </c>
-    </row>
-    <row r="15">
+        <f t="shared" si="0"/>
+        <v>6.7361111111111116E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4">
-        <v>0.0023263888888888887</v>
+        <v>2.3263888888888887E-3</v>
       </c>
       <c r="C15" s="4">
-        <v>0.0030787037037037037</v>
+        <v>3.0787037037037037E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>0.002337962962962963</v>
+        <v>2.3379629629629631E-3</v>
       </c>
       <c r="E15" s="4">
-        <v>0.0022916666666666667</v>
+        <v>2.2916666666666667E-3</v>
       </c>
       <c r="F15" s="4">
-        <v>0.0022916666666666667</v>
+        <v>2.2916666666666667E-3</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.002465277778</v>
-      </c>
-    </row>
-    <row r="16">
+        <f t="shared" si="0"/>
+        <v>2.465277777777778E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4">
-        <v>2.546296296296296E-4</v>
+        <v>2.5462962962962961E-4</v>
       </c>
       <c r="C16" s="4">
         <v>1.7361111111111112E-4</v>
       </c>
       <c r="D16" s="4">
-        <v>2.314814814814815E-4</v>
+        <v>2.3148148148148149E-4</v>
       </c>
       <c r="E16" s="4">
         <v>2.8935185185185184E-4</v>
@@ -777,11 +786,11 @@
         <v>1.6203703703703703E-4</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0002222222222</v>
-      </c>
-    </row>
-    <row r="17">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -789,47 +798,47 @@
         <v>4.861111111111111E-4</v>
       </c>
       <c r="C17" s="4">
-        <v>4.166666666666667E-4</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="D17" s="4">
         <v>3.8194444444444446E-4</v>
       </c>
       <c r="E17" s="4">
-        <v>4.62962962962963E-4</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="F17" s="4">
-        <v>3.935185185185185E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0004282407407</v>
-      </c>
-    </row>
-    <row r="18">
+        <f t="shared" si="0"/>
+        <v>4.2824074074074075E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="4">
-        <v>7.060185185185185E-4</v>
+        <v>7.0601851851851847E-4</v>
       </c>
       <c r="C18" s="4">
-        <v>6.365740740740741E-4</v>
+        <v>6.3657407407407413E-4</v>
       </c>
       <c r="D18" s="4">
-        <v>6.828703703703704E-4</v>
+        <v>6.8287037037037036E-4</v>
       </c>
       <c r="E18" s="4">
-        <v>6.944444444444445E-4</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="F18" s="4">
         <v>6.134259259259259E-4</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0006666666667</v>
-      </c>
-    </row>
-    <row r="19">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666675E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -843,41 +852,41 @@
         <v>1.5046296296296297E-4</v>
       </c>
       <c r="E19" s="4">
-        <v>2.662037037037037E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="F19" s="4">
         <v>1.5046296296296297E-4</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0001967592593</v>
-      </c>
-    </row>
-    <row r="20">
+        <f t="shared" si="0"/>
+        <v>1.9675925925925929E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4">
-        <v>9.722222222222222E-4</v>
+        <v>9.7222222222222219E-4</v>
       </c>
       <c r="C20" s="4">
-        <v>0.0010300925925925926</v>
+        <v>1.0300925925925926E-3</v>
       </c>
       <c r="D20" s="4">
-        <v>0.0012268518518518518</v>
+        <v>1.2268518518518518E-3</v>
       </c>
       <c r="E20" s="6">
-        <v>9.953703703703704E-4</v>
+        <v>9.9537037037037042E-4</v>
       </c>
       <c r="F20" s="4">
-        <v>8.449074074074074E-4</v>
+        <v>8.4490740740740739E-4</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="1"/>
-        <v>0.001013888889</v>
-      </c>
-    </row>
-    <row r="21">
+        <f t="shared" si="0"/>
+        <v>1.0138888888888888E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -891,17 +900,17 @@
         <v>1.8518518518518518E-4</v>
       </c>
       <c r="E21" s="4">
-        <v>2.777777777777778E-4</v>
+        <v>2.7777777777777778E-4</v>
       </c>
       <c r="F21" s="4">
         <v>1.8518518518518518E-4</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0002106481481</v>
-      </c>
-    </row>
-    <row r="22">
+        <f t="shared" si="0"/>
+        <v>2.1064814814814812E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -909,23 +918,23 @@
         <v>4.2824074074074075E-4</v>
       </c>
       <c r="C22" s="4">
-        <v>4.62962962962963E-4</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="D22" s="4">
-        <v>3.587962962962963E-4</v>
+        <v>3.5879629629629629E-4</v>
       </c>
       <c r="E22" s="4">
-        <v>4.050925925925926E-4</v>
+        <v>4.0509259259259258E-4</v>
       </c>
       <c r="F22" s="4">
         <v>4.5138888888888887E-4</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0004212962963</v>
-      </c>
-    </row>
-    <row r="23">
+        <f t="shared" si="0"/>
+        <v>4.2129629629629624E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -936,25 +945,25 @@
         <v>1.0416666666666667E-4</v>
       </c>
       <c r="D23" s="4">
-        <v>6.944444444444444E-5</v>
+        <v>6.9444444444444444E-5</v>
       </c>
       <c r="E23" s="4">
-        <v>1.388888888888889E-4</v>
+        <v>1.3888888888888889E-4</v>
       </c>
       <c r="F23" s="4">
-        <v>8.101851851851852E-5</v>
+        <v>8.1018518518518516E-5</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0001041666667</v>
-      </c>
-    </row>
-    <row r="24">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666669E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="4">
-        <v>1.388888888888889E-4</v>
+        <v>1.3888888888888889E-4</v>
       </c>
       <c r="C24" s="4">
         <v>1.5046296296296297E-4</v>
@@ -963,121 +972,97 @@
         <v>1.0416666666666667E-4</v>
       </c>
       <c r="E24" s="4">
-        <v>2.662037037037037E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="F24" s="4">
-        <v>1.388888888888889E-4</v>
+        <v>1.3888888888888889E-4</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="1"/>
-        <v>0.0001597222222</v>
-      </c>
-    </row>
-    <row r="25">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222223E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="4">
-        <v>8.101851851851852E-5</v>
+        <v>8.1018518518518516E-5</v>
       </c>
       <c r="C25" s="4">
-        <v>3.472222222222222E-5</v>
+        <v>3.4722222222222222E-5</v>
       </c>
       <c r="D25" s="4">
-        <v>6.944444444444444E-5</v>
+        <v>6.9444444444444444E-5</v>
       </c>
       <c r="E25" s="4">
-        <v>6.944444444444444E-5</v>
+        <v>6.9444444444444444E-5</v>
       </c>
       <c r="F25" s="4">
-        <v>6.944444444444444E-5</v>
+        <v>6.9444444444444444E-5</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="1"/>
-        <v>0.00006481481481</v>
-      </c>
-    </row>
-    <row r="26">
+        <f t="shared" si="0"/>
+        <v>6.4814814814814829E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="4">
-        <v>0.0011689814814814816</v>
+        <v>1.1689814814814816E-3</v>
       </c>
       <c r="C26" s="4">
-        <v>0.0015046296296296296</v>
+        <v>1.5046296296296296E-3</v>
       </c>
       <c r="D26" s="4">
-        <v>0.001412037037037037</v>
+        <v>1.4120370370370369E-3</v>
       </c>
       <c r="E26" s="4">
-        <v>0.0013541666666666667</v>
+        <v>1.3541666666666667E-3</v>
       </c>
       <c r="F26" s="4">
-        <v>0.0013194444444444445</v>
+        <v>1.3194444444444445E-3</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="1"/>
-        <v>0.001351851852</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="4">
-        <f t="shared" ref="B27:F27" si="2">MAX(B2:B26)</f>
-        <v>0.002326388889</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" si="2"/>
-        <v>0.003078703704</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" si="2"/>
-        <v>0.002337962963</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="2"/>
-        <v>0.002291666667</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" si="2"/>
-        <v>0.002291666667</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="1"/>
-        <v>0.002465277778</v>
+        <f t="shared" si="0"/>
+        <v>1.3518518518518519E-3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
-    <hyperlink r:id="rId18" ref="A19"/>
-    <hyperlink r:id="rId19" ref="A20"/>
-    <hyperlink r:id="rId20" ref="A21"/>
-    <hyperlink r:id="rId21" ref="A22"/>
-    <hyperlink r:id="rId22" ref="A23"/>
-    <hyperlink r:id="rId23" ref="A24"/>
-    <hyperlink r:id="rId24" ref="A25"/>
-    <hyperlink r:id="rId25" ref="A26"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
   </hyperlinks>
-  <drawing r:id="rId26"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>